--- a/Robusteness_Level.xlsx
+++ b/Robusteness_Level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto Fapespa Resque\artigo_marcador\marcadores\Analise_qualitativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EBBD48C5-B4D0-4939-AA5D-077744405432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:9_{EBBD48C5-B4D0-4939-AA5D-077744405432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC31E83A-F720-4697-B6DC-6675BE106C74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72232486-1409-4B58-8F1F-0AE9A572DE1C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="104">
   <si>
     <t>Identification</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>\cite{zhang2022deeptag}</t>
+  </si>
+  <si>
+    <t>\cite{willis2013infrastructs}</t>
+  </si>
+  <si>
+    <t>\cite{li2017aircode}</t>
   </si>
 </sst>
 </file>
@@ -1195,9 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC9A85-65D6-4138-8F72-82E72159496B}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1798,36 +1806,21 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="J41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1835,273 +1828,288 @@
       <c r="G42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
       <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L62" t="s">
         <v>21</v>
@@ -2109,99 +2117,93 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
-      </c>
-      <c r="L66" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G69" t="s">
         <v>15</v>
-      </c>
-      <c r="J69" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2209,140 +2211,140 @@
       <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
       <c r="J70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
       <c r="I73" t="s">
         <v>15</v>
-      </c>
-      <c r="K73" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
       </c>
       <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -2351,106 +2353,91 @@
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
       </c>
       <c r="K83" t="s">
         <v>15</v>
-      </c>
-      <c r="L83" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
       </c>
-      <c r="J84" t="s">
-        <v>14</v>
-      </c>
       <c r="K84" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="K85" t="s">
+        <v>15</v>
       </c>
       <c r="L85" t="s">
         <v>14</v>
@@ -2458,32 +2445,72 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
       </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
       <c r="K86" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>101</v>
       </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
         <v>21</v>
       </c>
     </row>
